--- a/flow-offload-results.xlsx
+++ b/flow-offload-results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Table 1</t>
   </si>
@@ -52,9 +52,15 @@
     <t>10M</t>
   </si>
   <si>
+    <t>20M</t>
+  </si>
+  <si>
     <t>New flows/sec</t>
   </si>
   <si>
+    <t>2M</t>
+  </si>
+  <si>
     <t>Avg Flow Duration sec</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>40%</t>
   </si>
   <si>
+    <t>63%</t>
+  </si>
+  <si>
     <t>CPU Load (per core)</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
   </si>
   <si>
     <t>11%</t>
+  </si>
+  <si>
+    <t>37%</t>
   </si>
   <si>
     <t>&lt;1% (per core)</t>
@@ -266,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -291,11 +303,17 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="19"/>
+      <color indexed="20"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="21"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,30 +346,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="20"/>
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="21"/>
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -556,6 +580,32 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -576,13 +626,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -661,16 +786,25 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -679,6 +813,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -694,6 +837,15 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -703,25 +855,31 @@
     <xf numFmtId="9" fontId="4" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -752,9 +910,12 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffc3e9ff"/>
       <rgbColor rgb="ff56c1fe"/>
+      <rgbColor rgb="ffa7a7a7"/>
       <rgbColor rgb="fffff7aa"/>
       <rgbColor rgb="fffff7ab"/>
       <rgbColor rgb="ff0075b9"/>
+      <rgbColor rgb="ff0075b9"/>
+      <rgbColor rgb="fffff7ab"/>
       <rgbColor rgb="fface1ff"/>
       <rgbColor rgb="fface0ff"/>
     </indexedColors>
@@ -1788,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1805,15 +1966,15 @@
     <col min="9" max="9" width="14.6719" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6719" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85156" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="13" width="21.6719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.67188" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1719" style="1" customWidth="1"/>
+    <col min="19" max="20" width="25.6719" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.85156" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1831,13 +1992,15 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
@@ -1859,6 +2022,8 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="7">
@@ -1880,14 +2045,16 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="10"/>
-      <c r="N3" t="s" s="11">
+      <c r="N3" s="10"/>
+      <c r="O3" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="12">
@@ -1909,14 +2076,16 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16">
+      <c r="N4" s="15"/>
+      <c r="O4" s="16">
         <v>60</v>
       </c>
-      <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="18">
@@ -1937,15 +2106,17 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" t="s" s="24">
+      <c r="M5" s="23"/>
+      <c r="N5" s="15"/>
+      <c r="O5" t="s" s="24">
         <v>6</v>
       </c>
-      <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="15"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="12">
@@ -1982,27 +2153,33 @@
       <c r="L6" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" t="s" s="24">
+      <c r="M6" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" t="s" s="24">
         <v>8</v>
       </c>
-      <c r="O6" t="s" s="24">
+      <c r="P6" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="P6" t="s" s="24">
+      <c r="Q6" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="Q6" t="s" s="24">
+      <c r="R6" t="s" s="24">
         <v>11</v>
       </c>
-      <c r="R6" t="s" s="24">
+      <c r="S6" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="T6" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>100</v>
@@ -2035,27 +2212,33 @@
       <c r="L7" t="s" s="24">
         <v>11</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16">
+      <c r="M7" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16">
         <v>100</v>
       </c>
-      <c r="O7" t="s" s="24">
+      <c r="P7" t="s" s="24">
         <v>8</v>
       </c>
-      <c r="P7" t="s" s="24">
+      <c r="Q7" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="Q7" t="s" s="24">
+      <c r="R7" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="R7" t="s" s="24">
+      <c r="S7" t="s" s="24">
         <v>11</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="T7" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>10</v>
@@ -2073,60 +2256,66 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16">
+      <c r="N8" s="15"/>
+      <c r="O8" s="16">
         <v>10</v>
       </c>
-      <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" ht="20.85" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" ht="20.85" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2139,742 +2328,802 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s" s="30">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s" s="30">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s" s="30">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s" s="30">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s" s="30">
         <v>18</v>
       </c>
+      <c r="B12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s" s="33">
+        <v>20</v>
+      </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B13" s="32">
-        <v>0</v>
-      </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s" s="36">
         <v>21</v>
       </c>
-      <c r="L13" t="s" s="36">
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s" s="39">
         <v>22</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="37">
-        <v>0</v>
-      </c>
-      <c r="O13" s="37">
-        <v>0</v>
-      </c>
-      <c r="P13" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="37">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s" s="38">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41">
+        <v>0</v>
+      </c>
+      <c r="I13" s="41">
+        <v>0</v>
+      </c>
+      <c r="J13" s="41">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s" s="42">
         <v>23</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="L13" t="s" s="43">
+        <v>24</v>
+      </c>
+      <c r="M13" s="44">
+        <v>0.93</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46">
+        <v>0</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s" s="47">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s" s="47">
+        <v>26</v>
+      </c>
+      <c r="U13" s="40"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="33">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s" s="33">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s" s="33">
         <v>27</v>
       </c>
-      <c r="E14" s="39">
+      <c r="B14" t="s" s="39">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="39">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s" s="39">
+        <v>30</v>
+      </c>
+      <c r="E14" s="48">
         <v>0.28</v>
       </c>
-      <c r="F14" t="s" s="33">
-        <v>28</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" t="s" s="36">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s" s="36">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s" s="36">
+      <c r="F14" t="s" s="39">
         <v>31</v>
       </c>
-      <c r="K14" t="s" s="36">
+      <c r="G14" s="40"/>
+      <c r="H14" t="s" s="42">
         <v>32</v>
       </c>
-      <c r="L14" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="M14" s="34"/>
-      <c r="N14" t="s" s="38">
+      <c r="I14" t="s" s="42">
         <v>33</v>
       </c>
-      <c r="O14" t="s" s="38">
+      <c r="J14" t="s" s="42">
         <v>34</v>
       </c>
-      <c r="P14" t="s" s="38">
+      <c r="K14" t="s" s="42">
         <v>35</v>
       </c>
-      <c r="Q14" t="s" s="38">
+      <c r="L14" t="s" s="43">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" t="s" s="47">
         <v>36</v>
       </c>
-      <c r="R14" t="s" s="38">
-        <v>32</v>
-      </c>
-      <c r="S14" s="34"/>
+      <c r="P14" t="s" s="47">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="R14" t="s" s="47">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s" s="47">
+        <v>35</v>
+      </c>
+      <c r="T14" t="s" s="47">
+        <v>35</v>
+      </c>
+      <c r="U14" s="40"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s" s="30">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s" s="30">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s" s="30">
         <v>40</v>
       </c>
-      <c r="E15" t="s" s="30">
+      <c r="B15" t="s" s="33">
         <v>41</v>
       </c>
-      <c r="F15" t="s" s="30">
+      <c r="C15" t="s" s="33">
         <v>42</v>
       </c>
+      <c r="D15" t="s" s="33">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s" s="33">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="33">
+        <v>45</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s" s="30">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s" s="30">
         <v>46</v>
       </c>
+      <c r="B16" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s" s="33">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s" s="33">
+        <v>49</v>
+      </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B19" s="32">
-        <v>0</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <v>0</v>
-      </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s" s="36">
-        <v>50</v>
-      </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="37">
-        <v>0</v>
-      </c>
-      <c r="O19" s="37">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="37">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s" s="38">
-        <v>51</v>
-      </c>
-      <c r="S19" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="38">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="41">
+        <v>0</v>
+      </c>
+      <c r="J19" s="41">
+        <v>0</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s" s="43">
+        <v>53</v>
+      </c>
+      <c r="M19" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s" s="47">
+        <v>54</v>
+      </c>
+      <c r="T19" t="s" s="47">
+        <v>55</v>
+      </c>
+      <c r="U19" s="40"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s" s="33">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s" s="33">
-        <v>54</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" t="s" s="36">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s" s="36">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s" s="36">
-        <v>55</v>
-      </c>
-      <c r="K20" t="s" s="36">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s" s="39">
         <v>56</v>
       </c>
-      <c r="L20" t="s" s="36">
+      <c r="C20" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="P20" t="s" s="38">
+      <c r="F20" t="s" s="39">
         <v>58</v>
       </c>
-      <c r="Q20" t="s" s="38">
+      <c r="G20" s="40"/>
+      <c r="H20" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s" s="42">
         <v>59</v>
       </c>
-      <c r="R20" t="s" s="38">
+      <c r="K20" t="s" s="42">
         <v>60</v>
       </c>
-      <c r="S20" s="34"/>
+      <c r="L20" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="M20" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="N20" s="45"/>
+      <c r="O20" t="s" s="47">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s" s="47">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s" s="47">
+        <v>62</v>
+      </c>
+      <c r="R20" t="s" s="47">
+        <v>63</v>
+      </c>
+      <c r="S20" t="s" s="47">
+        <v>64</v>
+      </c>
+      <c r="T20" t="s" s="47">
+        <v>35</v>
+      </c>
+      <c r="U20" s="40"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s" s="30">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s" s="30">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s" s="30">
         <v>40</v>
       </c>
-      <c r="E21" t="s" s="30">
+      <c r="B21" t="s" s="33">
         <v>41</v>
       </c>
-      <c r="F21" t="s" s="30">
+      <c r="C21" t="s" s="33">
         <v>42</v>
       </c>
+      <c r="D21" t="s" s="33">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s" s="33">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="33">
+        <v>45</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="17"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s" s="30">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s" s="30">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s" s="30">
         <v>46</v>
       </c>
+      <c r="B22" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s" s="33">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s" s="33">
+        <v>49</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="17"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
     </row>
     <row r="23" ht="20.85" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
     </row>
     <row r="24" ht="20.85" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+        <v>65</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="17"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B26" s="43">
-        <v>0</v>
-      </c>
-      <c r="C26" s="43">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s" s="44">
-        <v>62</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="45">
-        <v>0</v>
-      </c>
-      <c r="I26" s="45">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s" s="46">
-        <v>63</v>
-      </c>
-      <c r="K26" t="s" s="46">
-        <v>64</v>
-      </c>
-      <c r="L26" t="s" s="46">
-        <v>65</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="54">
+        <v>0</v>
+      </c>
+      <c r="C26" s="54">
+        <v>0</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0</v>
+      </c>
+      <c r="E26" s="54">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s" s="55">
+        <v>66</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="56">
+        <v>0</v>
+      </c>
+      <c r="I26" s="56">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s" s="57">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s" s="57">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s" s="57">
+        <v>69</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s" s="44">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s" s="44">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s" s="44">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s" s="44">
         <v>70</v>
       </c>
-      <c r="F27" t="s" s="44">
+      <c r="B27" t="s" s="55">
         <v>71</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" t="s" s="46">
+      <c r="C27" t="s" s="55">
         <v>72</v>
       </c>
-      <c r="I27" t="s" s="46">
+      <c r="D27" t="s" s="55">
         <v>73</v>
       </c>
-      <c r="J27" t="s" s="46">
-        <v>32</v>
-      </c>
-      <c r="K27" t="s" s="46">
-        <v>32</v>
-      </c>
-      <c r="L27" t="s" s="46">
-        <v>32</v>
-      </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
+      <c r="E27" t="s" s="55">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s" s="55">
+        <v>75</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" t="s" s="57">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="57">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s" s="57">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s" s="57">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s" s="57">
+        <v>35</v>
+      </c>
+      <c r="M27" s="57"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="17"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+        <v>78</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="17"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B30" s="43">
-        <v>0</v>
-      </c>
-      <c r="C30" s="43">
-        <v>0</v>
-      </c>
-      <c r="D30" s="43">
-        <v>0</v>
-      </c>
-      <c r="E30" s="43">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s" s="44">
-        <v>75</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="45">
-        <v>0</v>
-      </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
-      <c r="J30" s="45">
-        <v>0</v>
-      </c>
-      <c r="K30" s="45">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s" s="46">
-        <v>76</v>
-      </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="54">
+        <v>0</v>
+      </c>
+      <c r="C30" s="54">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s" s="55">
+        <v>79</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="56">
+        <v>0</v>
+      </c>
+      <c r="I30" s="56">
+        <v>0</v>
+      </c>
+      <c r="J30" s="56">
+        <v>0</v>
+      </c>
+      <c r="K30" s="56">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s" s="57">
+        <v>80</v>
+      </c>
+      <c r="M30" s="57"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s" s="44">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s" s="44">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s" s="44">
-        <v>52</v>
-      </c>
-      <c r="E31" t="s" s="44">
-        <v>77</v>
-      </c>
-      <c r="F31" t="s" s="44">
-        <v>78</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" t="s" s="46">
-        <v>52</v>
-      </c>
-      <c r="I31" t="s" s="46">
-        <v>52</v>
-      </c>
-      <c r="J31" t="s" s="46">
-        <v>79</v>
-      </c>
-      <c r="K31" t="s" s="46">
-        <v>80</v>
-      </c>
-      <c r="L31" t="s" s="46">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s" s="55">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s" s="55">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s" s="55">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s" s="55">
         <v>81</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
+      <c r="F31" t="s" s="55">
+        <v>82</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" t="s" s="57">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s" s="57">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s" s="57">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s" s="57">
+        <v>84</v>
+      </c>
+      <c r="L31" t="s" s="57">
+        <v>85</v>
+      </c>
+      <c r="M31" s="57"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
     </row>
     <row r="32" ht="20.85" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:U1"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
@@ -2884,10 +3133,10 @@
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="O8:S8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
